--- a/Map/mapsample.xlsx
+++ b/Map/mapsample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\circle\resource\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="平原１" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="30">
   <si>
     <t>草</t>
     <rPh sb="0" eb="1">
@@ -381,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -404,13 +404,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +516,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1875,161 +1889,1250 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="V16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16">
+        <v>15</v>
+      </c>
+      <c r="X16" s="17"/>
+      <c r="Y16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17" s="32">
+        <v>0</v>
+      </c>
+      <c r="B17" s="32">
+        <f>A$17+1</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="32">
+        <f>B$17+1</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="32">
+        <f>C$17+1</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="32">
+        <f>D$17+1</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="32">
+        <f>E$17+1</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="32">
+        <f>F$17+1</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="32">
+        <f>G$17+1</f>
+        <v>7</v>
+      </c>
+      <c r="I17" s="32">
+        <f>H$17+1</f>
+        <v>8</v>
+      </c>
+      <c r="J17" s="32">
+        <f>I$17+1</f>
+        <v>9</v>
+      </c>
+      <c r="K17" s="32">
+        <f>J$17+1</f>
+        <v>10</v>
+      </c>
+      <c r="L17" s="32">
+        <f>K$17+1</f>
+        <v>11</v>
+      </c>
+      <c r="M17" s="32">
+        <f>L$17+1</f>
+        <v>12</v>
+      </c>
+      <c r="N17" s="32">
+        <f>M$17+1</f>
+        <v>13</v>
+      </c>
+      <c r="O17" s="32">
+        <f>N$17+1</f>
+        <v>14</v>
+      </c>
+      <c r="P17" s="32">
+        <f>O$17+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q17" s="32">
+        <f>P$17+1</f>
+        <v>16</v>
+      </c>
+      <c r="R17" s="32">
+        <f>Q$17+1</f>
+        <v>17</v>
+      </c>
+      <c r="S17" s="32">
+        <f>R$17+1</f>
+        <v>18</v>
+      </c>
+      <c r="T17" s="32">
+        <f>S$17+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <f>$T17+1</f>
+        <v>20</v>
+      </c>
+      <c r="B18" s="32">
+        <f>$A18+1</f>
+        <v>21</v>
+      </c>
+      <c r="C18" s="32">
+        <f>B18+1</f>
+        <v>22</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" ref="D18:T19" si="0">C18+1</f>
+        <v>23</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="W16">
-        <v>14</v>
-      </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="V17" t="s">
+      <c r="F18" s="32">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="W17">
-        <v>15</v>
-      </c>
-      <c r="X17" s="17"/>
-      <c r="Y17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="G18" s="32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L18" s="32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M18" s="32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N18" s="32">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="P18" s="32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q18" s="32">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R18" s="32">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="S18" s="32">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="T18" s="32">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <f>$T18+1</f>
+        <v>40</v>
+      </c>
+      <c r="B19" s="32">
+        <f>$A19+1</f>
+        <v>41</v>
+      </c>
+      <c r="C19" s="32">
+        <f>B19+1</f>
+        <v>42</v>
+      </c>
+      <c r="D19" s="32">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G19" s="32">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L19" s="32">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M19" s="32">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="N19" s="32">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="O19" s="32">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="P19" s="32">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q19" s="32">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="S19" s="32">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="T19" s="32">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <f t="shared" ref="A20:A25" si="1">$T19+1</f>
+        <v>60</v>
+      </c>
+      <c r="B20" s="32">
+        <f t="shared" ref="B20:B31" si="2">$A20+1</f>
+        <v>61</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" ref="C20:T20" si="3">B20+1</f>
+        <v>62</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="J20" s="32">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="K20" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="L20" s="32">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="O20" s="32">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="P20" s="32">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="Q20" s="32">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="R20" s="32">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="S20" s="32">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="T20" s="32">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B21" s="32">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" ref="C21:T21" si="4">B21+1</f>
+        <v>82</v>
+      </c>
+      <c r="D21" s="32">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="J21" s="32">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L21" s="32">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="M21" s="32">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="N21" s="32">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="O21" s="32">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="Q21" s="32">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="R21" s="32">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="S21" s="32">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="T21" s="32">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B22" s="32">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" ref="C22:T22" si="5">B22+1</f>
+        <v>102</v>
+      </c>
+      <c r="D22" s="32">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="G22" s="32">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="J22" s="32">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="K22" s="32">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="L22" s="32">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="M22" s="32">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="N22" s="32">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="O22" s="32">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="P22" s="32">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="Q22" s="32">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="S22" s="32">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="T22" s="32">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B23" s="32">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" ref="C23:T23" si="6">B23+1</f>
+        <v>122</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="J23" s="32">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="K23" s="32">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="L23" s="32">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="M23" s="32">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="N23" s="32">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="O23" s="32">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="P23" s="32">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="Q23" s="32">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="R23" s="32">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="S23" s="32">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="T23" s="32">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B24" s="32">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" ref="C24:T24" si="7">B24+1</f>
+        <v>142</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="H24" s="32">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="I24" s="32">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="K24" s="32">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="L24" s="32">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="N24" s="32">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="O24" s="32">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="P24" s="32">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="Q24" s="32">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="R24" s="32">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="S24" s="32">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="T24" s="32">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" ref="C25:T25" si="8">B25+1</f>
+        <v>162</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="8"/>
+        <v>169</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="M25" s="32">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="N25" s="32">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="O25" s="32">
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+      <c r="P25" s="32">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="Q25" s="32">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+      <c r="S25" s="32">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+      <c r="T25" s="32">
+        <f t="shared" si="8"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <f>$T25+1</f>
+        <v>180</v>
+      </c>
+      <c r="B26" s="32">
+        <f>$A26+1</f>
+        <v>181</v>
+      </c>
+      <c r="C26" s="32">
+        <f>B26+1</f>
+        <v>182</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" ref="D26:T26" si="9">C26+1</f>
+        <v>183</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="9"/>
+        <v>184</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="9"/>
+        <v>186</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="9"/>
+        <v>188</v>
+      </c>
+      <c r="J26" s="32">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="L26" s="32">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="M26" s="32">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="O26" s="32">
+        <f t="shared" si="9"/>
+        <v>194</v>
+      </c>
+      <c r="P26" s="32">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
+      <c r="Q26" s="32">
+        <f t="shared" si="9"/>
+        <v>196</v>
+      </c>
+      <c r="R26" s="32">
+        <f t="shared" si="9"/>
+        <v>197</v>
+      </c>
+      <c r="S26" s="32">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="T26" s="32">
+        <f t="shared" si="9"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <f t="shared" ref="A27:A29" si="10">$T26+1</f>
+        <v>200</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" ref="C27:T27" si="11">B27+1</f>
+        <v>202</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="11"/>
+        <v>203</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="11"/>
+        <v>205</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="11"/>
+        <v>206</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="11"/>
+        <v>207</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="11"/>
+        <v>209</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="11"/>
+        <v>211</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+      <c r="N27" s="32">
+        <f t="shared" si="11"/>
+        <v>213</v>
+      </c>
+      <c r="O27" s="32">
+        <f t="shared" si="11"/>
+        <v>214</v>
+      </c>
+      <c r="P27" s="32">
+        <f t="shared" si="11"/>
+        <v>215</v>
+      </c>
+      <c r="Q27" s="32">
+        <f t="shared" si="11"/>
+        <v>216</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="S27" s="32">
+        <f t="shared" si="11"/>
+        <v>218</v>
+      </c>
+      <c r="T27" s="32">
+        <f t="shared" si="11"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+      <c r="B28" s="32">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" ref="C28:T28" si="12">B28+1</f>
+        <v>222</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="12"/>
+        <v>223</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="12"/>
+        <v>224</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="12"/>
+        <v>226</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" si="12"/>
+        <v>227</v>
+      </c>
+      <c r="I28" s="32">
+        <f t="shared" si="12"/>
+        <v>228</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="12"/>
+        <v>229</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" si="12"/>
+        <v>230</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" si="12"/>
+        <v>231</v>
+      </c>
+      <c r="M28" s="32">
+        <f t="shared" si="12"/>
+        <v>232</v>
+      </c>
+      <c r="N28" s="32">
+        <f t="shared" si="12"/>
+        <v>233</v>
+      </c>
+      <c r="O28" s="32">
+        <f t="shared" si="12"/>
+        <v>234</v>
+      </c>
+      <c r="P28" s="32">
+        <f t="shared" si="12"/>
+        <v>235</v>
+      </c>
+      <c r="Q28" s="32">
+        <f t="shared" si="12"/>
+        <v>236</v>
+      </c>
+      <c r="R28" s="32">
+        <f t="shared" si="12"/>
+        <v>237</v>
+      </c>
+      <c r="S28" s="32">
+        <f t="shared" si="12"/>
+        <v>238</v>
+      </c>
+      <c r="T28" s="32">
+        <f t="shared" si="12"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="B29" s="32">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" ref="C29:T29" si="13">B29+1</f>
+        <v>242</v>
+      </c>
+      <c r="D29" s="32">
+        <f t="shared" si="13"/>
+        <v>243</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="13"/>
+        <v>244</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="13"/>
+        <v>245</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="13"/>
+        <v>246</v>
+      </c>
+      <c r="H29" s="32">
+        <f t="shared" si="13"/>
+        <v>247</v>
+      </c>
+      <c r="I29" s="32">
+        <f t="shared" si="13"/>
+        <v>248</v>
+      </c>
+      <c r="J29" s="32">
+        <f t="shared" si="13"/>
+        <v>249</v>
+      </c>
+      <c r="K29" s="32">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="L29" s="32">
+        <f t="shared" si="13"/>
+        <v>251</v>
+      </c>
+      <c r="M29" s="32">
+        <f t="shared" si="13"/>
+        <v>252</v>
+      </c>
+      <c r="N29" s="32">
+        <f t="shared" si="13"/>
+        <v>253</v>
+      </c>
+      <c r="O29" s="32">
+        <f t="shared" si="13"/>
+        <v>254</v>
+      </c>
+      <c r="P29" s="32">
+        <f t="shared" si="13"/>
+        <v>255</v>
+      </c>
+      <c r="Q29" s="32">
+        <f t="shared" si="13"/>
+        <v>256</v>
+      </c>
+      <c r="R29" s="32">
+        <f t="shared" si="13"/>
+        <v>257</v>
+      </c>
+      <c r="S29" s="32">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="T29" s="32">
+        <f t="shared" si="13"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <f>$T29+1</f>
+        <v>260</v>
+      </c>
+      <c r="B30" s="32">
+        <f>$A30+1</f>
+        <v>261</v>
+      </c>
+      <c r="C30" s="32">
+        <f>B30+1</f>
+        <v>262</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" ref="D30:T30" si="14">C30+1</f>
+        <v>263</v>
+      </c>
+      <c r="E30" s="32">
+        <f t="shared" si="14"/>
+        <v>264</v>
+      </c>
+      <c r="F30" s="32">
+        <f t="shared" si="14"/>
+        <v>265</v>
+      </c>
+      <c r="G30" s="32">
+        <f t="shared" si="14"/>
+        <v>266</v>
+      </c>
+      <c r="H30" s="32">
+        <f t="shared" si="14"/>
+        <v>267</v>
+      </c>
+      <c r="I30" s="32">
+        <f t="shared" si="14"/>
+        <v>268</v>
+      </c>
+      <c r="J30" s="32">
+        <f t="shared" si="14"/>
+        <v>269</v>
+      </c>
+      <c r="K30" s="32">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="L30" s="32">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+      <c r="M30" s="32">
+        <f t="shared" si="14"/>
+        <v>272</v>
+      </c>
+      <c r="N30" s="32">
+        <f t="shared" si="14"/>
+        <v>273</v>
+      </c>
+      <c r="O30" s="32">
+        <f t="shared" si="14"/>
+        <v>274</v>
+      </c>
+      <c r="P30" s="32">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="Q30" s="32">
+        <f t="shared" si="14"/>
+        <v>276</v>
+      </c>
+      <c r="R30" s="32">
+        <f t="shared" si="14"/>
+        <v>277</v>
+      </c>
+      <c r="S30" s="32">
+        <f t="shared" si="14"/>
+        <v>278</v>
+      </c>
+      <c r="T30" s="32">
+        <f t="shared" si="14"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <f t="shared" ref="A31" si="15">$T30+1</f>
+        <v>280</v>
+      </c>
+      <c r="B31" s="32">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="C31" s="32">
+        <f t="shared" ref="C31:T31" si="16">B31+1</f>
+        <v>282</v>
+      </c>
+      <c r="D31" s="32">
+        <f t="shared" si="16"/>
+        <v>283</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="16"/>
+        <v>284</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" si="16"/>
+        <v>285</v>
+      </c>
+      <c r="G31" s="32">
+        <f t="shared" si="16"/>
+        <v>286</v>
+      </c>
+      <c r="H31" s="32">
+        <f t="shared" si="16"/>
+        <v>287</v>
+      </c>
+      <c r="I31" s="32">
+        <f t="shared" si="16"/>
+        <v>288</v>
+      </c>
+      <c r="J31" s="32">
+        <f t="shared" si="16"/>
+        <v>289</v>
+      </c>
+      <c r="K31" s="32">
+        <f t="shared" si="16"/>
+        <v>290</v>
+      </c>
+      <c r="L31" s="32">
+        <f t="shared" si="16"/>
+        <v>291</v>
+      </c>
+      <c r="M31" s="32">
+        <f t="shared" si="16"/>
+        <v>292</v>
+      </c>
+      <c r="N31" s="32">
+        <f t="shared" si="16"/>
+        <v>293</v>
+      </c>
+      <c r="O31" s="32">
+        <f t="shared" si="16"/>
+        <v>294</v>
+      </c>
+      <c r="P31" s="32">
+        <f t="shared" si="16"/>
+        <v>295</v>
+      </c>
+      <c r="Q31" s="32">
+        <f t="shared" si="16"/>
+        <v>296</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="16"/>
+        <v>297</v>
+      </c>
+      <c r="S31" s="32">
+        <f t="shared" si="16"/>
+        <v>298</v>
+      </c>
+      <c r="T31" s="32">
+        <f t="shared" si="16"/>
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9510,7 +10613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
